--- a/biology/Botanique/Bourgogne-passe-tout-grains/Bourgogne-passe-tout-grains.xlsx
+++ b/biology/Botanique/Bourgogne-passe-tout-grains/Bourgogne-passe-tout-grains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bourgogne-passe-tout-grains[2] est un vin rouge ou rosé d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
+Le bourgogne-passe-tout-grains est un vin rouge ou rosé d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
 Il s'agit d'une AOC régionale, elle est donc commune à tout le vignoble de Bourgogne
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation est reconnue par le décret du 31 juillet 1937.
 </t>
@@ -546,25 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-L'AOC bourgogne-passe-tout-grains est produit en vin rouge et vin rosé. Il est implanté dans les départements de l'Yonne, du Rhône, de la Côte-d'Or et de la Saône-et-loire. Il couvre une superficie totale de 695 hectares[3]. Il représente en production 44 980 hectolitres de vin[3]. C'est une des seules appellations de Bourgogne à avoir un assemblage de cépages avec du gamay (deux tiers au maximum) et du pinot noir (un tiers au minimum).
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AOC bourgogne-passe-tout-grains est produit en vin rouge et vin rosé. Il est implanté dans les départements de l'Yonne, du Rhône, de la Côte-d'Or et de la Saône-et-loire. Il couvre une superficie totale de 695 hectares. Il représente en production 44 980 hectolitres de vin. C'est une des seules appellations de Bourgogne à avoir un assemblage de cépages avec du gamay (deux tiers au maximum) et du pinot noir (un tiers au minimum).
 Les deux cépages doivent être cultivés sur le même domaine. Les cépages accessoires (chardonnay, pinot blanc et pinot gris) sont autorisés uniquement en mélange de plants dans les vignes ; leur proportion totale est limitée à 15 % au sein de chaque parcelle.
-Aire de production par département et commune
-La récolte des raisins, la vinification et l'élaboration des vins sont assurées sur le territoire des communes suivantes :
-Département de la Côte-d'Or
-Aloxe-Corton, Ancey, Arcenant, Auxey-Duresses, Baubigny, Beaune, Belan-sur-Ource, Bévy, Bissey-la-Côte, Bligny-lès-Beaune, Boncourt-le-Bois, Bouix, Bouze-lès-Beaune, Brion-sur-Ource, Brochon, Chambolle-Musigny, Charrey-sur-Seine, Chassagne-Montrachet, Chaumont-le-Bois, Chaux, Chenôve, Chevannes, Chorey-lès-Beaune, Collonges-lès-Bévy, Comblanchien, Corcelles-les-Monts, Corgoloin, Cormot-le-Grand, Corpeau, Couchey, Curtil-Vergy, Daix, Dijon, Echevronne, L'Etang-Vergy, Fixin, Flagey-Echezeaux, Fussey, Gevrey-Chambertin, Gilly-lès-Cîteaux, Gomméville, Griselles, Ladoix-Serrigny, Larrey, Magny-lès-Villers, Mâlain, Marcenay, Marey-lès-Fussey, Marsannay-la-Côte, Massingy, Mavilly-Mandelot, Meloisey, Messanges, Meuilley, Meursault, Molesmes, Monthelie, Montliot-et-Courcelles, Morey-Saint-Denis, Mosson, Nantoux, Noiron-sur-Seine, Nolay, Nuits-Saint-Georges, Obtrée, Pernand-Vergelesses, Plombières-lès-Dijon, Poinçon-lès-Larrey, Pommard, Pothières, Premeaux-Prissey, Puligny-Montrachet, Reulle-Vergy, Rochepot (La), Saint-Aubin, Saint-Romain, Santenay, Savigny-lès-Beaune, Segrois, Talant, Thoires, Vannaire, Vauchignon, Villars-Fontaine, Villedieu, Villers-la-Faye, Villers-Patras, Vix, Volnay, Vosne-Romanée et Vougeot.
-Département du Rhône
-Alix, Anse, L'Arbresle, Les Ardillats, Arnas, Bagnols, Beaujeu, Belleville, Belmont-d'Azergues, Blacé, Le Bois-d'Oingt, Le Breuil, Bully, Cercié, Chambost-Allières, Chamelet, Charentay, Charnay, Châtillon, Chazay-d'Azergues, Chénas, Chessy, Chiroubles, Cogny, Corcelles-en-Beaujolais, Dareizé, Denicé, Emeringes, Fleurie, Frontenas, Gleizé, Jarnioux, Juliénas, Jullié, Lacenas, Lachassagne, Lancié, Lantignié, Légny, Létra, Liergues, Limas, Lozanne, Lucenay, Marchampt, Marcy, Moiré, Montmelas-Saint-Sorlin, Morancé, Nuelles, Odenas, Oingt, Les Olmes, Le Perréon, Pommiers, Pouilly-le-Monial, Quincié-en-Beaujolais, Régnié-Durette, Rivolet, Saint-Clément-sur-Valsonne, Saint-Cyr-le-Chatoux, Saint-Didier-sur-Beaujeu, Saint-Étienne-des-Oullières, Saint-Étienne-la-Varenne, Saint-Georges-de-Reneins, Saint-Germain-sur-l'Arbresle, Saint-Jean-d'Ardières, Saint-Jean-des-Vignes, Saint-Julien, Saint-Just-d'Avray, Saint-Lager, Saint-Laurent-d'Oingt, Saint-Loup, Saint-Romain-de-Popey, Saint-Vérand, Sainte-Paule, Salles-Arbuissonnas-en-Beaujolais, Sarcey, Ternand, Theizé, Vaux-en-Beaujolais, Vauxrenard, Vernay, Ville-sur-Jarnioux et Villié-Morgon.
-Département de Saône-et-Loire
-Aluze, Ameugny, Azé, Barizey, Berzé-la-Ville, Berzé-le-Châtel, Bissey-sous-Cruchaud, Bissy-la-Mâconnaise, Bissy-sous-Uxelles, Bissy-sur-Fley, Blanot, Bonnay, Bouzeron, Boyer, Burgy, Burnand, Bussières, Buxy, Bray, Bresse-sur-Grosne, Cersot, Chagny, Chaintré, Chamilly, Champagny-sous-Uxelles, Chânes, Change, Chapaize, La Chapelle-de-Guinchay, La Chapelle-sous-Brancion, Charbonnières, Chardonnay, Charnay-lès-Mâcon, Charrecey, Chasselas, Chassey-le-Camp, Château, Cheilly-lès-Maranges, Chenôves, Chevagny-lès-Chevrières, Chissey-lès-Mâcon, Clessé, Cortambert, Cortevaix, Couches, Crêches-sur-Saône, Créot, Cruzille, Culles-les-Roches, Curtil-sous-Burnand, Davayé, Dennevy, Dezize-lès-Maranges, Donzy-le-National, Dracy-lès-Couches, Dracy-le-Fort, Epertully, Etrigny, Farges-lès-Mâcon, Fleurville, Fley, Fontaines, Fuissé, Genouilly, Germagny, Givry, Grevilly, Hurigny, Igè, Jalogny, Jambles, Jugy, Jully-lès-Buxy, Lacrost, Laives, Laizé, Leynes, Lournand, Lugny, Mâcon, Malay, Mancey, Martailly-lès-Brancion, Massy, Mellecey, Mercurey, Milly-Lamartine, Montagny-lès-Buxy, Montbellet, Montceaux-Ragny, Moroges, Nanton, Ozenay, Paris-l'Hôpital, Péronne, Pierreclos, Plottes, Préty, Prissé, Pruzilly, Remigny, La Roche-Vineuse, Romanèche-Thorins, Rosey, Royer, Rully, Saint-Albain, Saint-Amour-Bellevue, Saint-Boil, Saint-Clément-sur-Guye, Saint-Denis-de-Vaux, Saint-Désert, Saint-Gengoux-de-Scissé, Saint-Gengoux-le-National, Saint-Gilles, Saint-Jean-de-Trézy, Saint-Jean-de-Vaux, Saint-Léger-sur-Dheune, Saint-Mard-de-Vaux, Saint-Martin-Belle-Roche, Saint-Martin-du-Tartre, Saint-Martin-sous-Montaigu, Saint-Maurice-des-Champs, Saint-Maurice-de-Satonnay, Saint-Maurice-lès-Couches, Saint-Pierre-de-Varennes, Saint-Sernin-du-Plain, Saint-Symphorien-d'Ancelles, Saint-Vallerin, Saint-Vérand, Saint-Ythaire, La Salle, Salornay-sur-Guye, Sampigny-lès-Maranges, Santilly, Sassangy, Saules, Savigny-sur-Grosne, Sennecey-le-Grand, Senozan, Sercy, Serrières, Sigy-le-Châtel, Sologny, Solutré-Pouilly, Tournus, Uchizy, Vaux-en-Pré, Vergisson, Vers, Verzé, Le Villars, La Vineuse, Vinzelles et Viré.
-Département de l'Yonne
-Accolay, Asquins, Augy, Auxerre, Beine, Bernouil, Béru, Bleigny-le-Carreau, Chablis, Champvallon, La Chapelle-Vaupelteigne, Charentenay, Chemilly-sur-Serein, Cheney, Chichée, Chitry, Collan, Coulanges-la-Vineuse, Courgis, Cravant, Dannemoine, Dyé, Epineuil, Escolives-Sainte-Camille, Fleys, Fontenay-près-Chablis, Irancy, Joigny, Junay, Jussy, Lignorelles, Ligny-le-Châtel, Maligny, Migé, Molosmes, Mouffy, Poilly-sur-Serein, Préhy, Quenne, Saint-Bris-le-Vineux, Saint-Cyr-les-Colons, Saint-Père, Serrigny, Tharoiseau, Tonnerre, Tronchoy, Val-de-Mercy, Venoy, Vermenton, Vézelay, Vézinnes, Villy, Vincelottes, Viviers et Volgré.
-Géologie
-Ce sont des sols argilo-calcaires ; les terrains siliceux, argileux et sableux lui conviennent bien.
-Types de vins, gastronomie et températures de service
-Vins rouges fruités, coulants, fins, rustiques. S'accordent bien avec par exemple des œufs en meurette, de la charcuterie, des grillades. Se servent entre 11 et 13 degrés. Se gardent entre 2 et 3 ans.
-Encépagement
-Les vins sont issus principalement des cépages pinot noir N (la proportion doit être supérieure à 30 %) et gamay N (supérieure à 15 %), sont autorisés comme cépage accessoires (limités à 15 %) le chardonnay B, le pinot blanc B et le pinot gris G. 
 </t>
         </is>
       </c>
@@ -590,10 +593,324 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de production par département et commune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte des raisins, la vinification et l'élaboration des vins sont assurées sur le territoire des communes suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aire de production par département et commune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Département de la Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aloxe-Corton, Ancey, Arcenant, Auxey-Duresses, Baubigny, Beaune, Belan-sur-Ource, Bévy, Bissey-la-Côte, Bligny-lès-Beaune, Boncourt-le-Bois, Bouix, Bouze-lès-Beaune, Brion-sur-Ource, Brochon, Chambolle-Musigny, Charrey-sur-Seine, Chassagne-Montrachet, Chaumont-le-Bois, Chaux, Chenôve, Chevannes, Chorey-lès-Beaune, Collonges-lès-Bévy, Comblanchien, Corcelles-les-Monts, Corgoloin, Cormot-le-Grand, Corpeau, Couchey, Curtil-Vergy, Daix, Dijon, Echevronne, L'Etang-Vergy, Fixin, Flagey-Echezeaux, Fussey, Gevrey-Chambertin, Gilly-lès-Cîteaux, Gomméville, Griselles, Ladoix-Serrigny, Larrey, Magny-lès-Villers, Mâlain, Marcenay, Marey-lès-Fussey, Marsannay-la-Côte, Massingy, Mavilly-Mandelot, Meloisey, Messanges, Meuilley, Meursault, Molesmes, Monthelie, Montliot-et-Courcelles, Morey-Saint-Denis, Mosson, Nantoux, Noiron-sur-Seine, Nolay, Nuits-Saint-Georges, Obtrée, Pernand-Vergelesses, Plombières-lès-Dijon, Poinçon-lès-Larrey, Pommard, Pothières, Premeaux-Prissey, Puligny-Montrachet, Reulle-Vergy, Rochepot (La), Saint-Aubin, Saint-Romain, Santenay, Savigny-lès-Beaune, Segrois, Talant, Thoires, Vannaire, Vauchignon, Villars-Fontaine, Villedieu, Villers-la-Faye, Villers-Patras, Vix, Volnay, Vosne-Romanée et Vougeot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aire de production par département et commune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Département du Rhône</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alix, Anse, L'Arbresle, Les Ardillats, Arnas, Bagnols, Beaujeu, Belleville, Belmont-d'Azergues, Blacé, Le Bois-d'Oingt, Le Breuil, Bully, Cercié, Chambost-Allières, Chamelet, Charentay, Charnay, Châtillon, Chazay-d'Azergues, Chénas, Chessy, Chiroubles, Cogny, Corcelles-en-Beaujolais, Dareizé, Denicé, Emeringes, Fleurie, Frontenas, Gleizé, Jarnioux, Juliénas, Jullié, Lacenas, Lachassagne, Lancié, Lantignié, Légny, Létra, Liergues, Limas, Lozanne, Lucenay, Marchampt, Marcy, Moiré, Montmelas-Saint-Sorlin, Morancé, Nuelles, Odenas, Oingt, Les Olmes, Le Perréon, Pommiers, Pouilly-le-Monial, Quincié-en-Beaujolais, Régnié-Durette, Rivolet, Saint-Clément-sur-Valsonne, Saint-Cyr-le-Chatoux, Saint-Didier-sur-Beaujeu, Saint-Étienne-des-Oullières, Saint-Étienne-la-Varenne, Saint-Georges-de-Reneins, Saint-Germain-sur-l'Arbresle, Saint-Jean-d'Ardières, Saint-Jean-des-Vignes, Saint-Julien, Saint-Just-d'Avray, Saint-Lager, Saint-Laurent-d'Oingt, Saint-Loup, Saint-Romain-de-Popey, Saint-Vérand, Sainte-Paule, Salles-Arbuissonnas-en-Beaujolais, Sarcey, Ternand, Theizé, Vaux-en-Beaujolais, Vauxrenard, Vernay, Ville-sur-Jarnioux et Villié-Morgon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aire de production par département et commune</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Département de Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aluze, Ameugny, Azé, Barizey, Berzé-la-Ville, Berzé-le-Châtel, Bissey-sous-Cruchaud, Bissy-la-Mâconnaise, Bissy-sous-Uxelles, Bissy-sur-Fley, Blanot, Bonnay, Bouzeron, Boyer, Burgy, Burnand, Bussières, Buxy, Bray, Bresse-sur-Grosne, Cersot, Chagny, Chaintré, Chamilly, Champagny-sous-Uxelles, Chânes, Change, Chapaize, La Chapelle-de-Guinchay, La Chapelle-sous-Brancion, Charbonnières, Chardonnay, Charnay-lès-Mâcon, Charrecey, Chasselas, Chassey-le-Camp, Château, Cheilly-lès-Maranges, Chenôves, Chevagny-lès-Chevrières, Chissey-lès-Mâcon, Clessé, Cortambert, Cortevaix, Couches, Crêches-sur-Saône, Créot, Cruzille, Culles-les-Roches, Curtil-sous-Burnand, Davayé, Dennevy, Dezize-lès-Maranges, Donzy-le-National, Dracy-lès-Couches, Dracy-le-Fort, Epertully, Etrigny, Farges-lès-Mâcon, Fleurville, Fley, Fontaines, Fuissé, Genouilly, Germagny, Givry, Grevilly, Hurigny, Igè, Jalogny, Jambles, Jugy, Jully-lès-Buxy, Lacrost, Laives, Laizé, Leynes, Lournand, Lugny, Mâcon, Malay, Mancey, Martailly-lès-Brancion, Massy, Mellecey, Mercurey, Milly-Lamartine, Montagny-lès-Buxy, Montbellet, Montceaux-Ragny, Moroges, Nanton, Ozenay, Paris-l'Hôpital, Péronne, Pierreclos, Plottes, Préty, Prissé, Pruzilly, Remigny, La Roche-Vineuse, Romanèche-Thorins, Rosey, Royer, Rully, Saint-Albain, Saint-Amour-Bellevue, Saint-Boil, Saint-Clément-sur-Guye, Saint-Denis-de-Vaux, Saint-Désert, Saint-Gengoux-de-Scissé, Saint-Gengoux-le-National, Saint-Gilles, Saint-Jean-de-Trézy, Saint-Jean-de-Vaux, Saint-Léger-sur-Dheune, Saint-Mard-de-Vaux, Saint-Martin-Belle-Roche, Saint-Martin-du-Tartre, Saint-Martin-sous-Montaigu, Saint-Maurice-des-Champs, Saint-Maurice-de-Satonnay, Saint-Maurice-lès-Couches, Saint-Pierre-de-Varennes, Saint-Sernin-du-Plain, Saint-Symphorien-d'Ancelles, Saint-Vallerin, Saint-Vérand, Saint-Ythaire, La Salle, Salornay-sur-Guye, Sampigny-lès-Maranges, Santilly, Sassangy, Saules, Savigny-sur-Grosne, Sennecey-le-Grand, Senozan, Sercy, Serrières, Sigy-le-Châtel, Sologny, Solutré-Pouilly, Tournus, Uchizy, Vaux-en-Pré, Vergisson, Vers, Verzé, Le Villars, La Vineuse, Vinzelles et Viré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aire de production par département et commune</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Département de l'Yonne</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accolay, Asquins, Augy, Auxerre, Beine, Bernouil, Béru, Bleigny-le-Carreau, Chablis, Champvallon, La Chapelle-Vaupelteigne, Charentenay, Chemilly-sur-Serein, Cheney, Chichée, Chitry, Collan, Coulanges-la-Vineuse, Courgis, Cravant, Dannemoine, Dyé, Epineuil, Escolives-Sainte-Camille, Fleys, Fontenay-près-Chablis, Irancy, Joigny, Junay, Jussy, Lignorelles, Ligny-le-Châtel, Maligny, Migé, Molosmes, Mouffy, Poilly-sur-Serein, Préhy, Quenne, Saint-Bris-le-Vineux, Saint-Cyr-les-Colons, Saint-Père, Serrigny, Tharoiseau, Tonnerre, Tronchoy, Val-de-Mercy, Venoy, Vermenton, Vézelay, Vézinnes, Villy, Vincelottes, Viviers et Volgré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des sols argilo-calcaires ; les terrains siliceux, argileux et sableux lui conviennent bien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Types de vins, gastronomie et températures de service</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vins rouges fruités, coulants, fins, rustiques. S'accordent bien avec par exemple des œufs en meurette, de la charcuterie, des grillades. Se servent entre 11 et 13 degrés. Se gardent entre 2 et 3 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins sont issus principalement des cépages pinot noir N (la proportion doit être supérieure à 30 %) et gamay N (supérieure à 15 %), sont autorisés comme cépage accessoires (limités à 15 %) le chardonnay B, le pinot blanc B et le pinot gris G. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-passe-tout-grains</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
